--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef14839acedddd/Pós-graduação/3 - Projetos/projeto EPS/Variáveis feitas/Variáveis marianne FINAL/web-app/OCCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0701EABC-B37B-42E3-B158-9BA388A88C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0B77317-87C2-4F7E-8B27-7B933155823B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16608" yWindow="1032" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -65,6 +66,9 @@
     <t>One Large Output Currency Unit</t>
   </si>
   <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
     <t>Large Output Currency Unit</t>
   </si>
   <si>
@@ -83,28 +87,40 @@
     <t>See cpi.xlsx</t>
   </si>
   <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
     <t>Medium Output Currency Unit</t>
   </si>
   <si>
     <t>OCCF Dollars per Medium Output Currency Unit</t>
   </si>
   <si>
-    <t>Notes on the Brazilian adaptation</t>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
   </si>
   <si>
     <t>2019 dollars per 2012 dollar</t>
   </si>
   <si>
-    <t>2019 dollars</t>
-  </si>
-  <si>
-    <t>million 2019 dollars</t>
-  </si>
-  <si>
-    <t>billion 2019 dollars</t>
-  </si>
-  <si>
-    <t>For the Brazil model:</t>
+    <t>2020 dollars</t>
+  </si>
+  <si>
+    <t>million 2020 dollars</t>
+  </si>
+  <si>
+    <t>billion 2020 dollars</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2020 dollar."</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
   </si>
 </sst>
 </file>
@@ -128,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +154,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,7 +182,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,123 +520,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -644,27 +678,25 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9*About!$A$27</f>
-        <v>898000000</v>
+        <f>10^9*About!$A$26</f>
+        <v>887110671.49387014</v>
       </c>
     </row>
   </sheetData>
@@ -681,23 +713,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <f>10^6*About!$A$27</f>
-        <v>898000</v>
+        <f>10^6*About!$A$26</f>
+        <v>887110.67149387009</v>
       </c>
     </row>
   </sheetData>
@@ -714,23 +746,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7">
-        <f>1*About!A27</f>
-        <v>0.89800000000000002</v>
+        <f>1*About!A26</f>
+        <v>0.88711067149387013</v>
       </c>
     </row>
   </sheetData>
